--- a/excel/main.xlsx
+++ b/excel/main.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamadakanato/program/python/NLP/var/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamadakanato/program/python/NLP/NLP/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="5860" windowWidth="28720" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="2720" yWindow="1700" windowWidth="28720" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
@@ -173,6 +173,50 @@
   <si>
     <t xml:space="preserve">今までは、ルールベースや統計処理の中でしかAIを活用できなかったから、100%の精度を要求するなら、最後の最後は人間が見て、チェックする必要がありました。しかしディープラーニングを使ったら、今まで人手が必要だったところが限りなく少なくなる可能性があるため、色んな広がりが考えられます。 </t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディープラーニングを用いて株価予測を行うことは並大抵の努力では出来ない。演算時間が長く、辛抱強く待たなければいけない。</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; import numpy as np
+&gt;&gt;&gt; a = np.array([[1,2,3], [4,5,6]])
+&gt;&gt;&gt; b = np.array([[7, 8, 9], [10, 11, 12]])
+&gt;&gt;&gt; c = np.array((1, 2, 3))
+&gt;&gt;&gt; d = np.array((4, 5, 6))
+&gt;&gt;&gt; a
+array([[1, 2, 3],
+       [4, 5, 6]])
+&gt;&gt;&gt; b
+array([[ 7,  8,  9],
+       [10, 11, 12]])
+&gt;&gt;&gt; c
+array([1, 2, 3])
+&gt;&gt;&gt; d
+array([4, 5, 6])
+&gt;&gt;&gt; np.r_[a, b]
+array([[ 1,  2,  3],
+       [ 4,  5,  6],
+       [ 7,  8,  9],
+       [10, 11, 12]])
+&gt;&gt;&gt; np.c_[a, b]
+array([[ 1,  2,  3,  7,  8,  9],
+       [ 4,  5,  6, 10, 11, 12]])
+&gt;&gt;&gt; np.r_[c, d]
+array([1, 2, 3, 4, 5, 6])
+&gt;&gt;&gt; np.c_[c, d]
+array([[1, 4],
+       [2, 5],
+       [3, 6]])</t>
+  </si>
+  <si>
+    <t>numpyの配列の扱いで悩んだことがあったのでメモ。
+やりたかったことは、空の配列を作って、そこに縦ベクトルをループで水平方向に追加していく、ということ。ちなみに私が学部の頃使っていたMatlabでは以下のように書けます。</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>ディープラーニングを実装したライブラリを使いこなせるように準備している最中です。ディープラーニングには多くのベクトル演算が必要で、演算に多くの時間がかかります。この問題を解決するために、GPUを用いることで大幅に演算時間を短縮することが出来ます。GPUは本来映像を描写することに使用されますが、映像を描写する際に、座標計算など、ベクトル演算を多く行っているため、ディープラーニングに必要な大量のベクトル演算を瞬時に行うことが出来ます。</t>
   </si>
 </sst>
 </file>
@@ -183,14 +227,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -218,10 +261,12 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -496,152 +541,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>2</v>
+      <c r="C4" s="1">
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" s="1">
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="C7" s="1">
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" s="1">
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>2</v>
+      <c r="C9" s="1">
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>3</v>
+      <c r="C10" s="1">
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
